--- a/notebooks/ii-merge-test.xlsx
+++ b/notebooks/ii-merge-test.xlsx
@@ -11679,6 +11679,24 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -11706,24 +11724,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -11738,14 +11738,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:CT752" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:CT752" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:CT752"/>
   <tableColumns count="98">
     <tableColumn id="1" name="digi"/>
     <tableColumn id="2" name="Lfd Nr."/>
     <tableColumn id="3" name="AKZ"/>
     <tableColumn id="4" name="IDN"/>
-    <tableColumn id="5" name="Link zum Portal" dataDxfId="1" dataCellStyle="Link"/>
+    <tableColumn id="5" name="Link zum Portal" dataDxfId="0" dataCellStyle="Link"/>
     <tableColumn id="6" name="Signatur"/>
     <tableColumn id="7" name="Provenienzmerkmal"/>
     <tableColumn id="8" name="Material"/>
@@ -12133,8 +12133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT752"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
